--- a/medicine/Enfance/Sweet_Sixteen_(Heurtier)/Sweet_Sixteen_(Heurtier).xlsx
+++ b/medicine/Enfance/Sweet_Sixteen_(Heurtier)/Sweet_Sixteen_(Heurtier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sweet Sixteen est un roman d'Annelise Heurtier paru en 2013 chez Casterman Poche.
@@ -516,12 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contexte
-Le 17 mai 1954, la Cour suprême des États-Unis vote son arrêt 347, connu sous le nom de Brown v. Board of Education à l’unanimité qui met fin à la ségrégation raciale, la rendant inconstitutionnelle dans les écoles publiques. Les Noirs peuvent bénéficier du même enseignement que les Blancs[1].
-Résumé
-Été 1957, le prestigieux et renommé Lycée Central de Little Rock, dans l'Arkansas, un état du Sud bien que de tradition ségrégationniste, va accueillir dans ses murs neuf lycéens  noirs. Neuf lycéens noirs, triés sur le volet, pour deux mille cinq cents Blancs. Parmi eux, la jeune Molly, âgée de 15 ans, qui s'était portée volontaire dès 1954. Mais, en cette fin de mois d'août, la jeune fille, à la fois impatiente et anxieuse, n'arrivait toujours pas à y croire. Cela allait-il vraiment arriver ? 
-Ernest Green, Elizabeth Eckford, Jefferson Thomas, Terrence Roberts, Carlotta Walls, Minnijean Brown, Gloria Ray, Thelma Mothershed et Melba Pattillo, neuf noms qui allaient à jamais marquer l'histoire des États-Unis. Neuf enfants noirs parmi tous ces Blancs. Des Noirs humiliés, maltraités, harcelés par tous ces Blancs hostiles, haineux et malveillants. Des Blancs qui n'acceptèrent pas cette nouvelle loi. 
-Parmi les Blancs du lycée se trouve Grace. Élevée par une nounou noire qu’elle adore, elle s’intéresse à ses robes et aux garçons. Pourra-t-elle longtemps rester indifférente à la violence exercée par ses amis blancs[2] ? 
+          <t>Contexte</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 17 mai 1954, la Cour suprême des États-Unis vote son arrêt 347, connu sous le nom de Brown v. Board of Education à l’unanimité qui met fin à la ségrégation raciale, la rendant inconstitutionnelle dans les écoles publiques. Les Noirs peuvent bénéficier du même enseignement que les Blancs.
 </t>
         </is>
       </c>
@@ -547,10 +560,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Été 1957, le prestigieux et renommé Lycée Central de Little Rock, dans l'Arkansas, un état du Sud bien que de tradition ségrégationniste, va accueillir dans ses murs neuf lycéens  noirs. Neuf lycéens noirs, triés sur le volet, pour deux mille cinq cents Blancs. Parmi eux, la jeune Molly, âgée de 15 ans, qui s'était portée volontaire dès 1954. Mais, en cette fin de mois d'août, la jeune fille, à la fois impatiente et anxieuse, n'arrivait toujours pas à y croire. Cela allait-il vraiment arriver ? 
+Ernest Green, Elizabeth Eckford, Jefferson Thomas, Terrence Roberts, Carlotta Walls, Minnijean Brown, Gloria Ray, Thelma Mothershed et Melba Pattillo, neuf noms qui allaient à jamais marquer l'histoire des États-Unis. Neuf enfants noirs parmi tous ces Blancs. Des Noirs humiliés, maltraités, harcelés par tous ces Blancs hostiles, haineux et malveillants. Des Blancs qui n'acceptèrent pas cette nouvelle loi. 
+Parmi les Blancs du lycée se trouve Grace. Élevée par une nounou noire qu’elle adore, elle s’intéresse à ses robes et aux garçons. Pourra-t-elle longtemps rester indifférente à la violence exercée par ses amis blancs ? 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sweet_Sixteen_(Heurtier)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sweet_Sixteen_(Heurtier)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Les personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les personnages principaux sont Molly Costello et Grace Anderson, deux lycéennes de Little Rock. Dans le texte figure aussi : 
 Conrad Bishop,(le copain de Molly) un des enfants noirs
@@ -586,37 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sweet_Sixteen_(Heurtier)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sweet_Sixteen_(Heurtier)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Développement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le troisième roman d'Annelise Heurtier[3]. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -638,15 +661,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le troisième roman d'Annelise Heurtier. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sweet_Sixteen_(Heurtier)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sweet_Sixteen_(Heurtier)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Réception</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Accueil
-Le site SensCritique donne une note de 7.3/10 au livre[4].
-Récompenses
-Prix NRP Littérature Française - 2013
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site SensCritique donne une note de 7.3/10 au livre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sweet_Sixteen_(Heurtier)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sweet_Sixteen_(Heurtier)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix NRP Littérature Française - 2013
 Prix de la librairie Honoré - 2013
 Prix Livrentête Culture et Bibliothèque Pour Tous - 2014
 Prix Ados de la ville de Loudéac et de Cidéral - 2014
